--- a/Cert/5. Planificación desarrollo software.xlsx
+++ b/Cert/5. Planificación desarrollo software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDOIA\OneDrive\Escritorio\IDOIA\UNI\3. URTEA\6. SEIHILEKOA\PBL 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pbl_grupo_4\Cert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF71414A-0D46-4623-918B-C52A19D8737D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B6AB9D-D4F9-4CB9-8C4E-7564B9A94752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F67CF19C-4BD2-40B5-B178-F12D89CEB1AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F67CF19C-4BD2-40B5-B178-F12D89CEB1AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación software" sheetId="1" r:id="rId1"/>
@@ -401,51 +401,62 @@
     <t>Modelos de cribado de calidad</t>
   </si>
   <si>
-    <t>Como las imágenes ya icluyen un label que muestra que tipo de imagen es, una vez completadas las tablas separadas para cada caso: Revisadas, No Revisadas y las Revisadas de Calidad. Simplemente con observar si se han clasificado correctamente es sufiente.                                                                                                              0 - Imagen no revisada 
+    <t xml:space="preserve">Para aceptar esta función es necesario que las tres tablas se hayan creado correctamente, que la clasificación inicial haya sido completada de manera adecuada. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todas las imágenes tienen que tener un valor valido de cada una de las caracteristicas:                                                                                                                         Contraste: 0-100                                                                                                                           Entropia: 1-8                                                                                                                               Laplace Media: 0-255       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se ha verificado observando que los valores calculados se encuentran dentro de los valores establecidos y que cada imagen tenga todas las carecteristicas calculadas. </t>
+  </si>
+  <si>
+    <t>La tabla se ha tenido que crear de manera adecuada, con las columas correctamente separadas, con las 4 caracteristicas de cada imagen adecuadamente establecidas.</t>
+  </si>
+  <si>
+    <t>Se tienen que comparar al menos 5 modelos de clasificación diferentes y elegir el que mejor accuracy pueda proporcionar. El acuracy no puede ser menos que 85%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se ha seleccionado el modelo que el acuracy más alto, exactamente: 98.36%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se ha completado una verificación visual, donde se ha mirado si las columnas se han creado de manera correcta y la información se muestra de manera visual. </t>
+  </si>
+  <si>
+    <t>Como las imágenes ya icluyen un label que muestra que tipo de imagen es, una vez completadas las tablas separadas para cada caso: Revisadas, No Revisadas y las Revisadas de Calidad. Simplemente con observar si se han clasificado correctamente es suficiente.                                                                                                              0 - Imagen no revisada 
  1 - Bajo contraste
  2 - Desenfoque
  3 - Ruido
 4 - Calidad correcta</t>
   </si>
   <si>
-    <t xml:space="preserve">Para aceptar esta función es necesario que las tres tablas se hayan creado correctamente, que la clasificación inicial haya sido completada de manera adecuada. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todas las imágenes tienen que tener un valor valido de cada una de las caracteristicas:                                                                                                                         Contraste: 0-100                                                                                                                           Entropia: 1-8                                                                                                                               Laplace Media: 0-255       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se ha verificado observando que los valores calculados se encuentran dentro de los valores establecidos y que cada imagen tenga todas las carecteristicas calculadas. </t>
-  </si>
-  <si>
-    <t>La tabla se ha tenido que crear de manera adecuada, con las columas correctamente separadas, con las 4 caracteristicas de cada imagen adecuadamente establecidas.</t>
-  </si>
-  <si>
-    <t>Se ha llevado acabo una verificación visual para comprobar que la tabla se ha creado correctamente y que las columnas contienen informacíon adecuada de cada caracteristica. Se han llevado a cabo cambios para ver si se implementaban correctamente en la table, y al ver que si se ha completado la verificación.</t>
-  </si>
-  <si>
-    <t>Se tienen que comparar al menos 5 modelos de clasificación diferentes y elegir el que mejor accuracy pueda proporcionar. El acuracy no puede ser menos que 85%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se han llevado a cabo el desarrollo de 5 modelos de clasificación con acurracy-es altos y apropiados para los estandares establecidos. </t>
-  </si>
-  <si>
-    <t>Es necesario seleccionar el modelo más adecuado para la predicción, de las pruebas completadas se elejira aquel que tenga el acuracy más alto de todos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se ha seleccionado el modelo que el acuracy más alto, exactamente: 98.36%. </t>
-  </si>
-  <si>
-    <t>La tabla se tiene que crear de manera adecuada. Con una colunma nueva de predicción donde se meterá la predicción de la imagen teniendo en cuenta la clasificación de calidad establecido anteriormente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se ha completado una verificación visual, donde se ha mirado si las columnas se han creado de manera correcta y la información se muestra de manera visual. </t>
+    <r>
+      <t>Se ha llevado acabo una verificación visual para comprobar que la tabla se ha creado correctamente y que las columnas contienen informacíon adecuada de cada caracter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>istica. Se han llevado a cabo cambios para ver si se implementaban correctamente en la tabla.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Se ha llevado a cabo el desarrollo de 5 modelos de clasificación con acurracy-es altos y apropiados para los estandares establecidos. </t>
+  </si>
+  <si>
+    <t>Es necesario seleccionar el modelo más adecuado para la predicción, de las pruebas completadas se elegirá aquel que tenga el acuracy más alto de todos.</t>
+  </si>
+  <si>
+    <t>La tabla se tiene que crear de manera adecuada. Con una colunma nueva de predicción donde se meterá la predicción de la imagen teniendo en cuenta la clasificación de calidad establecida anteriormente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +535,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1001,93 +1018,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1095,38 +1025,125 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2450,11 +2467,11 @@
     <row r="2" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="5"/>
       <c r="J2" s="38" t="s">
         <v>33</v>
@@ -2462,18 +2479,18 @@
       <c r="K2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="L2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="52"/>
+      <c r="Q2" s="75"/>
     </row>
     <row r="3" spans="2:17" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="41" t="s">
@@ -2488,11 +2505,11 @@
       <c r="E3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
       <c r="I3" s="45" t="s">
         <v>9</v>
       </c>
@@ -2522,7 +2539,7 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="77" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -2537,10 +2554,10 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="61"/>
       <c r="I4" s="16" t="s">
         <v>46</v>
       </c>
@@ -2554,23 +2571,23 @@
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="60" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="64" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="63"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="16" t="s">
         <v>94</v>
       </c>
@@ -2584,10 +2601,10 @@
       <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="1" t="s">
         <v>56</v>
       </c>
@@ -2610,14 +2627,14 @@
       <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="2:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="67"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="82" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -2636,14 +2653,14 @@
       <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="67"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="63"/>
+      <c r="G8" s="82"/>
       <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
@@ -2660,10 +2677,10 @@
       <c r="Q8" s="50"/>
     </row>
     <row r="9" spans="2:17" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="67"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="65"/>
       <c r="F9" s="1" t="s">
         <v>59</v>
       </c>
@@ -2686,41 +2703,41 @@
       <c r="Q9" s="50"/>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="56"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="68" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="76"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="74"/>
       <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="2:17" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="56"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="58"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="33" t="s">
         <v>95</v>
       </c>
@@ -2734,34 +2751,34 @@
       <c r="Q11" s="50"/>
     </row>
     <row r="12" spans="2:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="74" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="76"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="74"/>
       <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="2:17" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="67"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="82" t="s">
         <v>63</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -2780,14 +2797,14 @@
       <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="2:17" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="67"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="63"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="4" t="s">
         <v>65</v>
       </c>
@@ -2804,14 +2821,14 @@
       <c r="Q14" s="50"/>
     </row>
     <row r="15" spans="2:17" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="67"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="63"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="4" t="s">
         <v>66</v>
       </c>
@@ -2828,14 +2845,14 @@
       <c r="Q15" s="50"/>
     </row>
     <row r="16" spans="2:17" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="67"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="63"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="2" t="s">
         <v>67</v>
       </c>
@@ -2852,17 +2869,17 @@
       <c r="Q16" s="50"/>
     </row>
     <row r="17" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="67"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="59"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="15" t="s">
         <v>96</v>
       </c>
@@ -2876,17 +2893,17 @@
       <c r="Q17" s="51"/>
     </row>
     <row r="18" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="56"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="67"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="59"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="15" t="s">
         <v>96</v>
       </c>
@@ -2900,10 +2917,10 @@
       <c r="Q18" s="51"/>
     </row>
     <row r="19" spans="2:17" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="67"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="3" t="s">
         <v>80</v>
       </c>
@@ -2926,37 +2943,37 @@
       <c r="Q19" s="51"/>
     </row>
     <row r="20" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="74" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="76"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="74"/>
       <c r="Q20" s="51"/>
     </row>
     <row r="21" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="56"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="67"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="59"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="17" t="s">
         <v>97</v>
       </c>
@@ -2970,17 +2987,17 @@
       <c r="Q21" s="51"/>
     </row>
     <row r="22" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="67"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="59"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="17" t="s">
         <v>97</v>
       </c>
@@ -2994,10 +3011,10 @@
       <c r="Q22" s="51"/>
     </row>
     <row r="23" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="67"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="3" t="s">
         <v>83</v>
       </c>
@@ -3020,17 +3037,17 @@
       <c r="Q23" s="51"/>
     </row>
     <row r="24" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="73"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="59"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="17" t="s">
         <v>97</v>
       </c>
@@ -3044,21 +3061,21 @@
       <c r="Q24" s="51"/>
     </row>
     <row r="25" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="78" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="62" t="s">
         <v>77</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="17" t="s">
         <v>97</v>
       </c>
@@ -3072,10 +3089,10 @@
       <c r="Q25" s="51"/>
     </row>
     <row r="26" spans="2:17" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="3" t="s">
         <v>86</v>
       </c>
@@ -3098,23 +3115,23 @@
       <c r="Q26" s="51"/>
     </row>
     <row r="27" spans="2:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="78"/>
+      <c r="C27" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="64" t="s">
         <v>91</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="59"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="16" t="s">
         <v>95</v>
       </c>
@@ -3128,17 +3145,17 @@
       <c r="Q27" s="50"/>
     </row>
     <row r="28" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="56"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="67"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="54"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="16" t="s">
         <v>95</v>
       </c>
@@ -3152,17 +3169,17 @@
       <c r="Q28" s="50"/>
     </row>
     <row r="29" spans="2:17" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="67"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="54"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="16" t="s">
         <v>95</v>
       </c>
@@ -3176,17 +3193,17 @@
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="2:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="73"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="54"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="16" t="s">
         <v>95</v>
       </c>
@@ -3224,13 +3241,18 @@
     <row r="48" spans="18:19" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C5:C26"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E10:E24"/>
-    <mergeCell ref="D10:D24"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B4:B30"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="G13:G16"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="E27:E30"/>
@@ -3244,19 +3266,14 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B4:B30"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="C5:C26"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E10:E24"/>
+    <mergeCell ref="D10:D24"/>
+    <mergeCell ref="G25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3268,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E197C23-B8CD-48F0-B441-B2C5FC811D0A}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="29" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="53" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3285,35 +3302,35 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="88" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="s">
+      <c r="E3" s="94"/>
+      <c r="F3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="56" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="165.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="11">
@@ -3327,20 +3344,20 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:10" ht="224.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="85"/>
-      <c r="C5" s="87"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="85" t="s">
         <v>105</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -3348,35 +3365,35 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="2:10" ht="199.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="85"/>
-      <c r="C6" s="87"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="80"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="14" t="s">
         <v>108</v>
       </c>
       <c r="G6" s="48"/>
       <c r="H6" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="80"/>
+        <v>124</v>
+      </c>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="2:10" ht="361.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="85"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="11">
         <v>4</v>
       </c>
@@ -3386,20 +3403,20 @@
       <c r="F7" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="57" t="s">
         <v>110</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="J7" s="82"/>
+        <v>125</v>
+      </c>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="2:10" ht="170.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="85"/>
-      <c r="C8" s="87"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="11">
         <v>5</v>
       </c>
@@ -3411,16 +3428,16 @@
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="85"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="11">
         <v>6</v>
       </c>
@@ -3432,16 +3449,16 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:10" ht="355.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="85"/>
-      <c r="C10" s="86" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="87" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="11">
@@ -3455,8 +3472,8 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10" ht="406.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="85"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="11">
         <v>8</v>
       </c>
@@ -3468,8 +3485,8 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:10" ht="190.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="85"/>
-      <c r="C12" s="87"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="11">
         <v>9</v>
       </c>
@@ -3481,8 +3498,8 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10" ht="271.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="85"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="12">
         <v>10</v>
       </c>
@@ -3494,8 +3511,8 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:10" ht="146.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="85"/>
-      <c r="C14" s="84" t="s">
+      <c r="B14" s="90"/>
+      <c r="C14" s="92" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="49">
@@ -3511,9 +3528,9 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="85"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="83">
+      <c r="B15" s="90"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="54">
         <v>12</v>
       </c>
       <c r="E15" s="9"/>
@@ -3524,13 +3541,13 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10" ht="120.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="85"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="83">
+      <c r="B16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="54">
         <v>13</v>
       </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -4018,14 +4035,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="B4:B16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4034,12 +4051,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E7AD8662A448D14998933AB392AB2983" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bb92f1b085559fa1f599cb9b2efa657f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2ddda4d8-23ce-4add-9e92-2ef7f3f803db" xmlns:ns4="0c1b779b-5ee2-4bd9-9386-902874d5f0db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23e14b63bac9e6bba6d90d948900c7ce" ns3:_="" ns4:_="">
     <xsd:import namespace="2ddda4d8-23ce-4add-9e92-2ef7f3f803db"/>
@@ -4224,6 +4235,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4234,23 +4251,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB458C28-702B-4A0D-82B2-0704BBFBA75A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0c1b779b-5ee2-4bd9-9386-902874d5f0db"/>
-    <ds:schemaRef ds:uri="2ddda4d8-23ce-4add-9e92-2ef7f3f803db"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{089242C4-88FB-4DB3-BEC8-93B7F94A8629}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4269,6 +4269,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB458C28-702B-4A0D-82B2-0704BBFBA75A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0c1b779b-5ee2-4bd9-9386-902874d5f0db"/>
+    <ds:schemaRef ds:uri="2ddda4d8-23ce-4add-9e92-2ef7f3f803db"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB405E82-FC35-4ECF-9AD2-E294D9D44E06}">
   <ds:schemaRefs>
